--- a/conda.xlsx
+++ b/conda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -103,12 +103,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -159,6 +165,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -179,10 +189,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -222,7 +232,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -245,9 +255,13 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -151,7 +151,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,6 +170,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -192,7 +196,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -269,7 +273,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
     </row>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -5,58 +5,66 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="417" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
-  </si>
-  <si>
-    <t>Fetching package metadata ...........</t>
-  </si>
-  <si>
-    <t>Solving package specifications:</t>
-  </si>
-  <si>
-    <t>Package plan for installation in environment /home/kshiba/.conda/envs/myenv:</t>
-  </si>
-  <si>
-    <t># added by Miniconda3 installer
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetching package metadata ...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solving package specifications:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package plan for installation in environment /home/kshiba/.conda/envs/myenv:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># added by Miniconda3 installer
 export PATH="/home/kshiba/miniconda3/bin:$PATH"</t>
   </si>
   <si>
-    <t>conda create -n myenv python</t>
-  </si>
-  <si>
-    <t>source activate carnd-term1</t>
-  </si>
-  <si>
-    <t>https://auth.udacity.com/sign-in?next=https%3A%2F%2Fclassroom.udacity.com%2Fauthenticated</t>
-  </si>
-  <si>
-    <t>export PYTHONPATH="/home/userx/anaconda3/lib/python3.5/site-package‌​s:$PYTHONPATH"</t>
-  </si>
-  <si>
-    <t>https://github.com/KSHIBA-HHQ</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/</t>
-  </si>
-  <si>
-    <t>conda create --name=IntroToTensorFlow python=3 anaconda
+    <t xml:space="preserve">conda create -n myenv python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source activate carnd-term1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conda install -c menpo opencv3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://auth.udacity.com/sign-in?next=https%3A%2F%2Fclassroom.udacity.com%2Fauthenticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export PYTHONPATH="/home/userx/anaconda3/lib/python3.5/site-package‌​s:$PYTHONPATH"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/KSHIBA-HHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nbviewer.jupyter.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conda create --name=IntroToTensorFlow python=3 anaconda
 source activate IntroToTensorFlow
 conda install -c conda-forge tensorflow</t>
   </si>
   <si>
-    <t>source activate IntroToTensorFlow</t>
+    <t xml:space="preserve">source activate IntroToTensorFlow</t>
   </si>
 </sst>
 </file>
@@ -64,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -196,13 +204,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.5585585585586"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1711711711712"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2702702702703"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,7 +232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -240,24 +247,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -267,14 +279,14 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="966" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
   </si>
@@ -65,6 +65,13 @@
   </si>
   <si>
     <t xml:space="preserve">source activate IntroToTensorFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/udacity/CarND-Term1-Starter-Kit.git
+cd CarND-Term1-Starter-Kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conda env create -f environment.yml</t>
   </si>
 </sst>
 </file>
@@ -201,15 +208,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.2702702702703"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.0315315315315"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.58108108108108"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -287,6 +295,16 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -5,73 +5,80 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="966" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="955" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetching package metadata ...........</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solving package specifications:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package plan for installation in environment /home/kshiba/.conda/envs/myenv:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># added by Miniconda3 installer
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
+  </si>
+  <si>
+    <t>Fetching package metadata ...........</t>
+  </si>
+  <si>
+    <t>Solving package specifications:</t>
+  </si>
+  <si>
+    <t>Package plan for installation in environment /home/kshiba/.conda/envs/myenv:</t>
+  </si>
+  <si>
+    <t># added by Miniconda3 installer
 export PATH="/home/kshiba/miniconda3/bin:$PATH"</t>
   </si>
   <si>
-    <t xml:space="preserve">conda create -n myenv python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">source activate carnd-term1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conda install -c menpo opencv3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://auth.udacity.com/sign-in?next=https%3A%2F%2Fclassroom.udacity.com%2Fauthenticated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">export PYTHONPATH="/home/userx/anaconda3/lib/python3.5/site-package‌​s:$PYTHONPATH"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/KSHIBA-HHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nbviewer.jupyter.org/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conda create --name=IntroToTensorFlow python=3 anaconda
+    <t>conda create -n myenv python</t>
+  </si>
+  <si>
+    <t>source activate carnd-term1</t>
+  </si>
+  <si>
+    <t>conda install -c menpo opencv3</t>
+  </si>
+  <si>
+    <t>https://auth.udacity.com/sign-in?next=https%3A%2F%2Fclassroom.udacity.com%2Fauthenticated</t>
+  </si>
+  <si>
+    <t>export PYTHONPATH="/home/userx/anaconda3/lib/python3.5/site-package‌​s:$PYTHONPATH"</t>
+  </si>
+  <si>
+    <t>https://github.com/KSHIBA-HHQ</t>
+  </si>
+  <si>
+    <t>https://nbviewer.jupyter.org/</t>
+  </si>
+  <si>
+    <t>conda create --name=IntroToTensorFlow python=3 anaconda
 source activate IntroToTensorFlow
 conda install -c conda-forge tensorflow</t>
   </si>
   <si>
-    <t xml:space="preserve">source activate IntroToTensorFlow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git clone https://github.com/udacity/CarND-Term1-Starter-Kit.git
+    <t>source activate IntroToTensorFlow</t>
+  </si>
+  <si>
+    <t>git clone https://github.com/udacity/CarND-Term1-Starter-Kit.git
 cd CarND-Term1-Starter-Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">conda env create -f environment.yml</t>
+    <t>conda env create -f environment.yml</t>
+  </si>
+  <si>
+    <t>conda install --channel https://conda.anac.org/menpo opencv3
+</t>
+  </si>
+  <si>
+    <t>
+import sys
+##sys.path.append('/usr/local/lib/python2.7/site-packages')
+sys.path.append('/home/kshiba/conda/lib/python3.6/site-packages')
+import cv2
+</t>
   </si>
 </sst>
 </file>
@@ -79,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -118,7 +125,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +136,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -166,7 +179,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -189,6 +202,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -200,6 +217,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FF99FFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -208,10 +285,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -240,7 +317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -305,6 +382,16 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -69,16 +69,13 @@
     <t>conda env create -f environment.yml</t>
   </si>
   <si>
-    <t>conda install --channel https://conda.anac.org/menpo opencv3
-</t>
-  </si>
-  <si>
-    <t>
-import sys
+    <t>conda install --channel https://conda.anac.org/menpo opencv3</t>
+  </si>
+  <si>
+    <t>import sys
 ##sys.path.append('/usr/local/lib/python2.7/site-packages')
 sys.path.append('/home/kshiba/conda/lib/python3.6/site-packages')
-import cv2
-</t>
+import cv2</t>
   </si>
 </sst>
 </file>
@@ -287,8 +284,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -389,7 +386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -284,8 +284,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -5,77 +5,88 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="955" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
-  </si>
-  <si>
-    <t>Fetching package metadata ...........</t>
-  </si>
-  <si>
-    <t>Solving package specifications:</t>
-  </si>
-  <si>
-    <t>Package plan for installation in environment /home/kshiba/.conda/envs/myenv:</t>
-  </si>
-  <si>
-    <t># added by Miniconda3 installer
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetching package metadata ...........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solving package specifications:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package plan for installation in environment /home/kshiba/.conda/envs/myenv:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># added by Miniconda3 installer
 export PATH="/home/kshiba/miniconda3/bin:$PATH"</t>
   </si>
   <si>
-    <t>conda create -n myenv python</t>
-  </si>
-  <si>
-    <t>source activate carnd-term1</t>
-  </si>
-  <si>
-    <t>conda install -c menpo opencv3</t>
-  </si>
-  <si>
-    <t>https://auth.udacity.com/sign-in?next=https%3A%2F%2Fclassroom.udacity.com%2Fauthenticated</t>
-  </si>
-  <si>
-    <t>export PYTHONPATH="/home/userx/anaconda3/lib/python3.5/site-package‌​s:$PYTHONPATH"</t>
-  </si>
-  <si>
-    <t>https://github.com/KSHIBA-HHQ</t>
-  </si>
-  <si>
-    <t>https://nbviewer.jupyter.org/</t>
-  </si>
-  <si>
-    <t>conda create --name=IntroToTensorFlow python=3 anaconda
+    <t xml:space="preserve">conda create -n myenv python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conda env create -f environment.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source activate carnd-term1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conda install -c menpo opencv3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://auth.udacity.com/sign-in?next=https%3A%2F%2Fclassroom.udacity.com%2Fauthenticated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export PYTHONPATH="/home/userx/anaconda3/lib/python3.5/site-package‌​s:$PYTHONPATH"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/KSHIBA-HHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nbviewer.jupyter.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conda create --name=IntroToTensorFlow python=3 anaconda
 source activate IntroToTensorFlow
 conda install -c conda-forge tensorflow</t>
   </si>
   <si>
-    <t>source activate IntroToTensorFlow</t>
-  </si>
-  <si>
-    <t>git clone https://github.com/udacity/CarND-Term1-Starter-Kit.git
+    <t xml:space="preserve">source activate IntroToTensorFlow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git clone https://github.com/udacity/CarND-Term1-Starter-Kit.git
 cd CarND-Term1-Starter-Kit</t>
   </si>
   <si>
-    <t>conda env create -f environment.yml</t>
-  </si>
-  <si>
-    <t>conda install --channel https://conda.anac.org/menpo opencv3</t>
-  </si>
-  <si>
-    <t>import sys
+    <t xml:space="preserve">conda install --channel https://conda.anac.org/menpo opencv3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import sys
 ##sys.path.append('/usr/local/lib/python2.7/site-packages')
 sys.path.append('/home/kshiba/conda/lib/python3.6/site-packages')
 import cv2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudo apt-get install python-pip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudo pip install jupyter</t>
   </si>
 </sst>
 </file>
@@ -83,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -122,7 +133,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +152,12 @@
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
@@ -176,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -193,6 +210,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -203,6 +224,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -282,15 +307,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.0315315315315"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.5540540540541"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.58108108108108"/>
   </cols>
   <sheetData>
@@ -330,65 +355,80 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/conda.xlsx
+++ b/conda.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">kshiba@kshiba-FMVMGG70W:~$ conda create --name myenv</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">conda create -n myenv python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conda env create -f environment.yml</t>
   </si>
   <si>
     <t xml:space="preserve">source activate carnd-term1</t>
@@ -74,19 +71,17 @@
 cd CarND-Term1-Starter-Kit</t>
   </si>
   <si>
-    <t xml:space="preserve">conda install --channel https://conda.anac.org/menpo opencv3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import sys
+    <t xml:space="preserve">conda env create -f environment.yml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+import platform
+print(platform.python_version())
+import sys
 ##sys.path.append('/usr/local/lib/python2.7/site-packages')
 sys.path.append('/home/kshiba/conda/lib/python3.6/site-packages')
-import cv2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sudo apt-get install python-pip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudo pip install jupyter</t>
+import cv2
+</t>
   </si>
 </sst>
 </file>
@@ -148,14 +143,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FFFF"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FFFF00CC"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <fgColor rgb="FF00FF66"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -210,10 +205,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,8 +217,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -244,10 +239,10 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00FF66"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFF00CC"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
@@ -260,7 +255,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FF99FFFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -307,15 +302,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.5540540540541"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.7927927927928"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.58108108108108"/>
   </cols>
   <sheetData>
@@ -339,7 +334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -355,80 +350,60 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+    <row r="17" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+    <row r="23" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+    <row r="28" customFormat="false" ht="89.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
